--- a/Tables/разводы по кварталам(группы).xlsx
+++ b/Tables/разводы по кварталам(группы).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CG25"/>
+  <dimension ref="A1:CH25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,67 +436,67 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>Ямало-Ненецкий авт.округ</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Ямало-Ненецкий авт.округ</t>
+          <t>Сахалинская область</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Сахалинская область</t>
+          <t>Тюменская область</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Тюменская область</t>
+          <t>Чукотский авт.округ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Чукотский авт.округ</t>
+          <t>г.Москва</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>г.Москва</t>
+          <t>Магаданская область</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Магаданская область</t>
+          <t>Республика Саха (Якутия)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Республика Саха (Якутия)</t>
+          <t>г.Санкт-Петербург</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>г.Санкт-Петербург</t>
+          <t>Мурманская область</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Мурманская область</t>
+          <t>Республика Коми</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Республика Коми</t>
+          <t>Московская область</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Московская область</t>
+          <t>Тюменская область без авт.округов</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Тюменская область без авт.округов</t>
+          <t>Unnamed: 13</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -716,192 +716,193 @@
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 57</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
           <t>Краснодарский край</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>Еврейская авт.область</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>Тверская область</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>Ростовская область</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Республика Ингушетия</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>Чувашская Республика</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Республика Мордовия</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>Ульяновская область</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>Орловская область</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Республика Марий Эл</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>Костромская область</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Владимирская область</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>Кировская область</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>Тамбовская область</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>Смоленская область</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>Ставропольский край</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>Республика Северная Осетия - Алания</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>Курганская область</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>Республика Адыгея</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>Брянская область</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>Алтайский край</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>Псковская область</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>Республика Алтай</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>Республика Калмыкия</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>Кабардино-Балкарская Республика</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>Республика Дагестан</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>Чеченская Республика</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>Ивановская область</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>Карачаево-Черкесская Республика</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1 квартал 2015</t>
-        </is>
+      <c r="A2" t="n">
+        <v>5.75</v>
       </c>
       <c r="B2" t="n">
-        <v>5.75</v>
+        <v>5.949999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>5.949999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="D2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="F2" t="n">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
       <c r="G2" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>4.85</v>
       </c>
       <c r="I2" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="J2" t="n">
         <v>4.85</v>
       </c>
-      <c r="J2" t="n">
-        <v>5.65</v>
-      </c>
       <c r="K2" t="n">
-        <v>4.85</v>
+        <v>4.65</v>
       </c>
       <c r="L2" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="M2" t="n">
         <v>5</v>
       </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
         <v>5.199999999999999</v>
       </c>
@@ -1031,136 +1032,133 @@
       <c r="BD2" t="n">
         <v>4.2</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="n">
         <v>4.6</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BG2" t="n">
         <v>5.1</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BH2" t="n">
         <v>4.55</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BI2" t="n">
         <v>4.35</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BJ2" t="n">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>3.55</v>
       </c>
       <c r="BK2" t="n">
         <v>3.55</v>
       </c>
       <c r="BL2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BM2" t="n">
         <v>4.1</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BN2" t="n">
         <v>4.7</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BO2" t="n">
         <v>3.9</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BP2" t="n">
         <v>4.65</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BQ2" t="n">
         <v>4.4</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BR2" t="n">
         <v>4.55</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BS2" t="n">
         <v>4.15</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BT2" t="n">
         <v>4.9</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BU2" t="n">
         <v>3.95</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BV2" t="n">
         <v>2.7</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BW2" t="n">
         <v>4.949999999999999</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BX2" t="n">
         <v>3.55</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BY2" t="n">
         <v>5.2</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BZ2" t="n">
         <v>4.7</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CA2" t="n">
         <v>4.3</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CB2" t="n">
         <v>4.7</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CC2" t="n">
         <v>3.85</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CD2" t="n">
         <v>2.35</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CE2" t="n">
         <v>1.6</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CF2" t="n">
         <v>0.8</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CG2" t="n">
         <v>4.25</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CH2" t="n">
         <v>3.35</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2 квартал 2015</t>
-        </is>
+      <c r="A3" t="n">
+        <v>5.600000000000001</v>
       </c>
       <c r="B3" t="n">
-        <v>5.600000000000001</v>
+        <v>5.733333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>5.733333333333333</v>
+        <v>5.199999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>5.199999999999999</v>
+        <v>5.933333333333334</v>
       </c>
       <c r="E3" t="n">
+        <v>3.433333333333334</v>
+      </c>
+      <c r="F3" t="n">
         <v>5.933333333333334</v>
       </c>
-      <c r="F3" t="n">
-        <v>3.433333333333334</v>
-      </c>
       <c r="G3" t="n">
-        <v>5.933333333333334</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>4.266666666666667</v>
+        <v>4.633333333333334</v>
       </c>
       <c r="I3" t="n">
-        <v>4.633333333333334</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="J3" t="n">
-        <v>5.333333333333333</v>
+        <v>4.533333333333333</v>
       </c>
       <c r="K3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L3" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="L3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.533333333333333</v>
-      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
         <v>4.733333333333333</v>
       </c>
@@ -1290,136 +1288,133 @@
       <c r="BD3" t="n">
         <v>3.799999999999999</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BG3" t="n">
         <v>4.8</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BH3" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BI3" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BJ3" t="n">
         <v>0.8666666666666667</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BK3" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BL3" t="n">
         <v>3.1</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BM3" t="n">
         <v>3.733333333333333</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BN3" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BO3" t="n">
         <v>3.433333333333334</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BP3" t="n">
         <v>4.2</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BQ3" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BR3" t="n">
         <v>4.133333333333334</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BS3" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BT3" t="n">
         <v>4.466666666666667</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BU3" t="n">
         <v>3.700000000000001</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BV3" t="n">
         <v>2.466666666666667</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BW3" t="n">
         <v>4.5</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="BX3" t="n">
         <v>3.233333333333333</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="BY3" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="BZ3" t="n">
         <v>4.1</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="CA3" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CB3" t="n">
         <v>3.700000000000001</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CC3" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CD3" t="n">
         <v>2.366666666666667</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CE3" t="n">
         <v>1.5</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CF3" t="n">
         <v>0.7666666666666666</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CG3" t="n">
         <v>4</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CH3" t="n">
         <v>3.166666666666667</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3 квартал 2015</t>
-        </is>
+      <c r="A4" t="n">
+        <v>5.533333333333334</v>
       </c>
       <c r="B4" t="n">
-        <v>5.533333333333334</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>5.833333333333333</v>
+        <v>5.266666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>5.266666666666667</v>
+        <v>5.8</v>
       </c>
       <c r="E4" t="n">
-        <v>5.8</v>
+        <v>3.433333333333334</v>
       </c>
       <c r="F4" t="n">
-        <v>3.433333333333334</v>
+        <v>6.033333333333334</v>
       </c>
       <c r="G4" t="n">
-        <v>6.033333333333334</v>
+        <v>4.3</v>
       </c>
       <c r="H4" t="n">
-        <v>4.3</v>
+        <v>4.566666666666666</v>
       </c>
       <c r="I4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J4" t="n">
         <v>4.566666666666666</v>
       </c>
-      <c r="J4" t="n">
-        <v>5.2</v>
-      </c>
       <c r="K4" t="n">
-        <v>4.566666666666666</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M4" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
         <v>4.7</v>
       </c>
@@ -1549,136 +1544,133 @@
       <c r="BD4" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="n">
         <v>4.466666666666667</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BG4" t="n">
         <v>4.8</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BH4" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BI4" t="n">
         <v>4.1</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BJ4" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BK4" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BL4" t="n">
         <v>3.133333333333333</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BM4" t="n">
         <v>3.833333333333333</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BN4" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BO4" t="n">
         <v>3.5</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BP4" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BQ4" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BR4" t="n">
         <v>4</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BS4" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BT4" t="n">
         <v>4.566666666666666</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BU4" t="n">
         <v>3.799999999999999</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BV4" t="n">
         <v>2.566666666666666</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="BW4" t="n">
         <v>4.566666666666666</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="BX4" t="n">
         <v>3.4</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="BY4" t="n">
         <v>4.566666666666666</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="BZ4" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="CA4" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CB4" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CC4" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CD4" t="n">
         <v>2.3</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CE4" t="n">
         <v>1.5</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CF4" t="n">
         <v>0.8000000000000002</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CG4" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CH4" t="n">
         <v>3.299999999999999</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4 квартал 2015</t>
-        </is>
+      <c r="A5" t="n">
+        <v>5.5</v>
       </c>
       <c r="B5" t="n">
-        <v>5.5</v>
+        <v>5.866666666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>5.866666666666667</v>
+        <v>5.266666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>5.266666666666667</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>5.600000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="F5" t="n">
-        <v>3.5</v>
+        <v>5.966666666666666</v>
       </c>
       <c r="G5" t="n">
-        <v>5.966666666666666</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="H5" t="n">
-        <v>4.266666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="I5" t="n">
-        <v>4.666666666666667</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="J5" t="n">
-        <v>5.166666666666667</v>
+        <v>4.633333333333333</v>
       </c>
       <c r="K5" t="n">
-        <v>4.633333333333333</v>
+        <v>4.566666666666666</v>
       </c>
       <c r="L5" t="n">
-        <v>4.566666666666666</v>
-      </c>
-      <c r="M5" t="n">
         <v>4.733333333333333</v>
       </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
         <v>4.8</v>
       </c>
@@ -1808,136 +1800,133 @@
       <c r="BD5" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="n">
         <v>4.566666666666666</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BG5" t="n">
         <v>4.8</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BH5" t="n">
         <v>4.3</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BI5" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BJ5" t="n">
         <v>0.8000000000000002</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BK5" t="n">
         <v>3.200000000000001</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BL5" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BM5" t="n">
         <v>3.9</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BN5" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BO5" t="n">
         <v>3.6</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BP5" t="n">
         <v>4.3</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BQ5" t="n">
         <v>4.1</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BR5" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BS5" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BT5" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BU5" t="n">
         <v>3.799999999999999</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="BV5" t="n">
         <v>2.6</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="BW5" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="BX5" t="n">
         <v>3.5</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="BY5" t="n">
         <v>4.7</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="BZ5" t="n">
         <v>4.4</v>
       </c>
-      <c r="BZ5" t="n">
+      <c r="CA5" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CB5" t="n">
         <v>4</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CC5" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CD5" t="n">
         <v>2.4</v>
       </c>
-      <c r="CD5" t="n">
+      <c r="CE5" t="n">
         <v>1.6</v>
       </c>
-      <c r="CE5" t="n">
+      <c r="CF5" t="n">
         <v>0.7666666666666666</v>
       </c>
-      <c r="CF5" t="n">
+      <c r="CG5" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="CH5" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1 квартал 2016</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5.8</v>
       </c>
       <c r="B6" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="C6" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="D6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="J6" t="n">
         <v>4.7</v>
       </c>
       <c r="K6" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="M6" t="n">
         <v>4.2</v>
       </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
         <v>4.1</v>
       </c>
@@ -2067,136 +2056,133 @@
       <c r="BD6" t="n">
         <v>3.1</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="n">
         <v>4.2</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BG6" t="n">
         <v>5</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>3.8</v>
       </c>
       <c r="BH6" t="n">
         <v>3.8</v>
       </c>
       <c r="BI6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BJ6" t="n">
         <v>1</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BK6" t="n">
         <v>3.1</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BL6" t="n">
         <v>2.9</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BM6" t="n">
         <v>3.4</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BN6" t="n">
         <v>3.6</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BO6" t="n">
         <v>3.3</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BP6" t="n">
         <v>4.2</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BQ6" t="n">
         <v>3.7</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BR6" t="n">
         <v>4.3</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BS6" t="n">
         <v>3.4</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BT6" t="n">
         <v>4.3</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BU6" t="n">
         <v>3.6</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BV6" t="n">
         <v>2.7</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="BW6" t="n">
         <v>4.1</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="BX6" t="n">
         <v>3.1</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="BY6" t="n">
         <v>4.2</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>4</v>
       </c>
       <c r="BZ6" t="n">
         <v>4</v>
       </c>
       <c r="CA6" t="n">
+        <v>4</v>
+      </c>
+      <c r="CB6" t="n">
         <v>4.3</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CC6" t="n">
         <v>3.3</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CD6" t="n">
         <v>2.6</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CE6" t="n">
         <v>1.5</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="CF6" t="n">
         <v>0.7</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CG6" t="n">
         <v>3.5</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="CH6" t="n">
         <v>3.1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2 квартал 2016</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6.266666666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>6.266666666666667</v>
+        <v>5.566666666666666</v>
       </c>
       <c r="C7" t="n">
-        <v>5.566666666666666</v>
+        <v>5.199999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>5.199999999999999</v>
+        <v>5.766666666666666</v>
       </c>
       <c r="E7" t="n">
-        <v>5.766666666666666</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="F7" t="n">
-        <v>3.366666666666667</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>6.166666666666667</v>
+        <v>4.433333333333334</v>
       </c>
       <c r="H7" t="n">
-        <v>4.433333333333334</v>
+        <v>4.733333333333333</v>
       </c>
       <c r="I7" t="n">
-        <v>4.733333333333333</v>
+        <v>5.533333333333334</v>
       </c>
       <c r="J7" t="n">
-        <v>5.533333333333334</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>4.466666666666667</v>
       </c>
       <c r="L7" t="n">
-        <v>4.466666666666667</v>
-      </c>
-      <c r="M7" t="n">
         <v>4.533333333333333</v>
       </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
         <v>4.6</v>
       </c>
@@ -2326,136 +2312,133 @@
       <c r="BD7" t="n">
         <v>3.466666666666667</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="n">
         <v>4.5</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BG7" t="n">
         <v>4.866666666666667</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BH7" t="n">
         <v>4</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BI7" t="n">
         <v>4.133333333333334</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BJ7" t="n">
         <v>1</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BK7" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BL7" t="n">
         <v>3.1</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BM7" t="n">
         <v>3.700000000000001</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BN7" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BO7" t="n">
         <v>3.366666666666667</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BP7" t="n">
         <v>4.133333333333333</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BQ7" t="n">
         <v>3.9</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BR7" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BS7" t="n">
         <v>3.700000000000001</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BT7" t="n">
         <v>4.5</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BU7" t="n">
         <v>3.766666666666667</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="BV7" t="n">
         <v>2.666666666666667</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="BW7" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="BX7" t="n">
         <v>3.533333333333333</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="BY7" t="n">
         <v>4.5</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="BZ7" t="n">
         <v>4.199999999999999</v>
       </c>
-      <c r="BZ7" t="n">
+      <c r="CA7" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="CA7" t="n">
+      <c r="CB7" t="n">
         <v>4.2</v>
       </c>
-      <c r="CB7" t="n">
+      <c r="CC7" t="n">
         <v>3.433333333333334</v>
       </c>
-      <c r="CC7" t="n">
+      <c r="CD7" t="n">
         <v>2.766666666666667</v>
       </c>
-      <c r="CD7" t="n">
+      <c r="CE7" t="n">
         <v>1.6</v>
       </c>
-      <c r="CE7" t="n">
+      <c r="CF7" t="n">
         <v>0.8000000000000002</v>
       </c>
-      <c r="CF7" t="n">
+      <c r="CG7" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="CG7" t="n">
+      <c r="CH7" t="n">
         <v>3.200000000000001</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3 квартал 2016</t>
-        </is>
+      <c r="A8" t="n">
+        <v>5.899999999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>5.899999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="C8" t="n">
-        <v>5.5</v>
+        <v>5.233333333333333</v>
       </c>
       <c r="D8" t="n">
-        <v>5.233333333333333</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>5.600000000000001</v>
+        <v>3.433333333333334</v>
       </c>
       <c r="F8" t="n">
-        <v>3.433333333333334</v>
+        <v>6.366666666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>6.366666666666667</v>
+        <v>4.4</v>
       </c>
       <c r="H8" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="I8" t="n">
-        <v>4.7</v>
+        <v>5.433333333333334</v>
       </c>
       <c r="J8" t="n">
-        <v>5.433333333333334</v>
+        <v>4.866666666666667</v>
       </c>
       <c r="K8" t="n">
-        <v>4.866666666666667</v>
+        <v>4.533333333333333</v>
       </c>
       <c r="L8" t="n">
-        <v>4.533333333333333</v>
-      </c>
-      <c r="M8" t="n">
         <v>4.633333333333333</v>
       </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
         <v>4.7</v>
       </c>
@@ -2585,136 +2568,133 @@
       <c r="BD8" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="n">
         <v>4.5</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BG8" t="n">
         <v>4.766666666666667</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BH8" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BI8" t="n">
         <v>4.2</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BJ8" t="n">
         <v>0.9666666666666667</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BK8" t="n">
         <v>3.299999999999999</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BL8" t="n">
         <v>3.200000000000001</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BM8" t="n">
         <v>3.833333333333333</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BN8" t="n">
         <v>4.133333333333333</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BO8" t="n">
         <v>3.5</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BP8" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BQ8" t="n">
         <v>3.9</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BR8" t="n">
         <v>4.1</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BS8" t="n">
         <v>3.799999999999999</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BT8" t="n">
         <v>4.5</v>
       </c>
-      <c r="BT8" t="n">
+      <c r="BU8" t="n">
         <v>3.799999999999999</v>
       </c>
-      <c r="BU8" t="n">
+      <c r="BV8" t="n">
         <v>2.6</v>
       </c>
-      <c r="BV8" t="n">
+      <c r="BW8" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="BW8" t="n">
+      <c r="BX8" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="BX8" t="n">
+      <c r="BY8" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="BY8" t="n">
+      <c r="BZ8" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="BZ8" t="n">
+      <c r="CA8" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="CA8" t="n">
+      <c r="CB8" t="n">
         <v>4.2</v>
       </c>
-      <c r="CB8" t="n">
+      <c r="CC8" t="n">
         <v>3.700000000000001</v>
       </c>
-      <c r="CC8" t="n">
+      <c r="CD8" t="n">
         <v>2.799999999999999</v>
       </c>
-      <c r="CD8" t="n">
+      <c r="CE8" t="n">
         <v>1.6</v>
       </c>
-      <c r="CE8" t="n">
+      <c r="CF8" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="CF8" t="n">
+      <c r="CG8" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="CG8" t="n">
+      <c r="CH8" t="n">
         <v>3.133333333333333</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4 квартал 2016</t>
-        </is>
+      <c r="A9" t="n">
+        <v>5.633333333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>5.633333333333333</v>
+        <v>5.566666666666666</v>
       </c>
       <c r="C9" t="n">
-        <v>5.566666666666666</v>
+        <v>5.2</v>
       </c>
       <c r="D9" t="n">
-        <v>5.2</v>
+        <v>5.133333333333334</v>
       </c>
       <c r="E9" t="n">
-        <v>5.133333333333334</v>
+        <v>3.466666666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>3.466666666666667</v>
+        <v>6.266666666666667</v>
       </c>
       <c r="G9" t="n">
-        <v>6.266666666666667</v>
+        <v>4.3</v>
       </c>
       <c r="H9" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>5.400000000000001</v>
       </c>
       <c r="J9" t="n">
-        <v>5.400000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
         <v>4.6</v>
       </c>
-      <c r="M9" t="n">
-        <v>4.6</v>
-      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
         <v>4.733333333333333</v>
       </c>
@@ -2844,136 +2824,133 @@
       <c r="BD9" t="n">
         <v>3.766666666666667</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="n">
         <v>4.6</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BG9" t="n">
         <v>4.7</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BH9" t="n">
         <v>4.2</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BI9" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BJ9" t="n">
         <v>0.9</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BK9" t="n">
         <v>3.299999999999999</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="BL9" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BM9" t="n">
         <v>3.833333333333333</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BN9" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BO9" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BP9" t="n">
         <v>4.2</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BQ9" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BR9" t="n">
         <v>4.1</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BS9" t="n">
         <v>3.9</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="BT9" t="n">
         <v>4.5</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="BU9" t="n">
         <v>3.799999999999999</v>
       </c>
-      <c r="BU9" t="n">
+      <c r="BV9" t="n">
         <v>2.6</v>
       </c>
-      <c r="BV9" t="n">
+      <c r="BW9" t="n">
         <v>4.633333333333334</v>
       </c>
-      <c r="BW9" t="n">
+      <c r="BX9" t="n">
         <v>3.700000000000001</v>
       </c>
-      <c r="BX9" t="n">
+      <c r="BY9" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="BY9" t="n">
+      <c r="BZ9" t="n">
         <v>4.4</v>
       </c>
-      <c r="BZ9" t="n">
+      <c r="CA9" t="n">
         <v>4.3</v>
       </c>
-      <c r="CA9" t="n">
+      <c r="CB9" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="CB9" t="n">
+      <c r="CC9" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="CC9" t="n">
+      <c r="CD9" t="n">
         <v>2.799999999999999</v>
       </c>
-      <c r="CD9" t="n">
+      <c r="CE9" t="n">
         <v>1.6</v>
       </c>
-      <c r="CE9" t="n">
+      <c r="CF9" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="CF9" t="n">
+      <c r="CG9" t="n">
         <v>4.1</v>
       </c>
-      <c r="CG9" t="n">
+      <c r="CH9" t="n">
         <v>3.133333333333333</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1 квартал 2017</t>
-        </is>
+      <c r="A10" t="n">
+        <v>5.5</v>
       </c>
       <c r="B10" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="C10" t="n">
-        <v>5.75</v>
+        <v>5.050000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>5.050000000000001</v>
+        <v>5.85</v>
       </c>
       <c r="E10" t="n">
-        <v>5.85</v>
+        <v>3.35</v>
       </c>
       <c r="F10" t="n">
-        <v>3.35</v>
+        <v>6.449999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>6.449999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I10" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="J10" t="n">
-        <v>5.2</v>
+        <v>5.15</v>
       </c>
       <c r="K10" t="n">
-        <v>5.15</v>
+        <v>4.3</v>
       </c>
       <c r="L10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="M10" t="n">
         <v>4.5</v>
       </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
         <v>4.75</v>
       </c>
@@ -3103,136 +3080,133 @@
       <c r="BD10" t="n">
         <v>3.7</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="n">
         <v>4.449999999999999</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BG10" t="n">
         <v>4.35</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BH10" t="n">
         <v>4.1</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BI10" t="n">
         <v>4.15</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BJ10" t="n">
         <v>0.8</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BK10" t="n">
         <v>3.2</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BL10" t="n">
         <v>3.05</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BM10" t="n">
         <v>3.75</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BN10" t="n">
         <v>4.3</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BO10" t="n">
         <v>3.65</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BP10" t="n">
         <v>4</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BQ10" t="n">
         <v>3.95</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BR10" t="n">
         <v>4.05</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BS10" t="n">
         <v>3.7</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="BT10" t="n">
         <v>4.3</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="BU10" t="n">
         <v>3.55</v>
       </c>
-      <c r="BU10" t="n">
+      <c r="BV10" t="n">
         <v>2.35</v>
       </c>
-      <c r="BV10" t="n">
+      <c r="BW10" t="n">
         <v>4.35</v>
       </c>
-      <c r="BW10" t="n">
+      <c r="BX10" t="n">
         <v>3.5</v>
       </c>
-      <c r="BX10" t="n">
+      <c r="BY10" t="n">
         <v>4.550000000000001</v>
       </c>
-      <c r="BY10" t="n">
+      <c r="BZ10" t="n">
         <v>4.2</v>
       </c>
-      <c r="BZ10" t="n">
+      <c r="CA10" t="n">
         <v>4.15</v>
       </c>
-      <c r="CA10" t="n">
+      <c r="CB10" t="n">
         <v>3.85</v>
       </c>
-      <c r="CB10" t="n">
+      <c r="CC10" t="n">
         <v>3.6</v>
       </c>
-      <c r="CC10" t="n">
+      <c r="CD10" t="n">
         <v>2.7</v>
       </c>
-      <c r="CD10" t="n">
+      <c r="CE10" t="n">
         <v>1.55</v>
       </c>
-      <c r="CE10" t="n">
+      <c r="CF10" t="n">
         <v>0.8</v>
       </c>
-      <c r="CF10" t="n">
+      <c r="CG10" t="n">
         <v>3.7</v>
       </c>
-      <c r="CG10" t="n">
+      <c r="CH10" t="n">
         <v>3.15</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2 квартал 2017</t>
-        </is>
+      <c r="A11" t="n">
+        <v>5.733333333333333</v>
       </c>
       <c r="B11" t="n">
-        <v>5.733333333333333</v>
+        <v>5.966666666666666</v>
       </c>
       <c r="C11" t="n">
-        <v>5.966666666666666</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>5.166666666666667</v>
+        <v>6.866666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>6.866666666666667</v>
+        <v>3.566666666666666</v>
       </c>
       <c r="F11" t="n">
-        <v>3.566666666666666</v>
+        <v>6.633333333333333</v>
       </c>
       <c r="G11" t="n">
-        <v>6.633333333333333</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>4.166666666666667</v>
+        <v>4.7</v>
       </c>
       <c r="I11" t="n">
-        <v>4.7</v>
+        <v>5.566666666666666</v>
       </c>
       <c r="J11" t="n">
-        <v>5.566666666666666</v>
+        <v>5.5</v>
       </c>
       <c r="K11" t="n">
-        <v>5.5</v>
+        <v>4.466666666666667</v>
       </c>
       <c r="L11" t="n">
-        <v>4.466666666666667</v>
-      </c>
-      <c r="M11" t="n">
         <v>4.533333333333333</v>
       </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
         <v>4.833333333333333</v>
       </c>
@@ -3362,136 +3336,133 @@
       <c r="BD11" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="BE11" t="n">
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="n">
         <v>4.4</v>
       </c>
-      <c r="BF11" t="n">
+      <c r="BG11" t="n">
         <v>4.399999999999999</v>
       </c>
-      <c r="BG11" t="n">
+      <c r="BH11" t="n">
         <v>4.4</v>
       </c>
-      <c r="BH11" t="n">
+      <c r="BI11" t="n">
         <v>4.2</v>
       </c>
-      <c r="BI11" t="n">
+      <c r="BJ11" t="n">
         <v>0.6999999999999998</v>
       </c>
-      <c r="BJ11" t="n">
+      <c r="BK11" t="n">
         <v>3.299999999999999</v>
       </c>
-      <c r="BK11" t="n">
+      <c r="BL11" t="n">
         <v>3.033333333333333</v>
       </c>
-      <c r="BL11" t="n">
+      <c r="BM11" t="n">
         <v>3.799999999999999</v>
       </c>
-      <c r="BM11" t="n">
+      <c r="BN11" t="n">
         <v>4.4</v>
       </c>
-      <c r="BN11" t="n">
+      <c r="BO11" t="n">
         <v>3.666666666666667</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>4.166666666666667</v>
       </c>
       <c r="BP11" t="n">
         <v>4.166666666666667</v>
       </c>
       <c r="BQ11" t="n">
+        <v>4.166666666666667</v>
+      </c>
+      <c r="BR11" t="n">
         <v>4.1</v>
       </c>
-      <c r="BR11" t="n">
+      <c r="BS11" t="n">
         <v>3.733333333333333</v>
       </c>
-      <c r="BS11" t="n">
+      <c r="BT11" t="n">
         <v>4.4</v>
       </c>
-      <c r="BT11" t="n">
+      <c r="BU11" t="n">
         <v>3.433333333333334</v>
       </c>
-      <c r="BU11" t="n">
+      <c r="BV11" t="n">
         <v>2.533333333333333</v>
       </c>
-      <c r="BV11" t="n">
+      <c r="BW11" t="n">
         <v>4.466666666666667</v>
       </c>
-      <c r="BW11" t="n">
+      <c r="BX11" t="n">
         <v>3.466666666666667</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>4.366666666666666</v>
       </c>
       <c r="BY11" t="n">
         <v>4.366666666666666</v>
       </c>
       <c r="BZ11" t="n">
+        <v>4.366666666666666</v>
+      </c>
+      <c r="CA11" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="CA11" t="n">
+      <c r="CB11" t="n">
         <v>3.799999999999999</v>
       </c>
-      <c r="CB11" t="n">
+      <c r="CC11" t="n">
         <v>3.4</v>
       </c>
-      <c r="CC11" t="n">
+      <c r="CD11" t="n">
         <v>2.700000000000001</v>
       </c>
-      <c r="CD11" t="n">
+      <c r="CE11" t="n">
         <v>1.5</v>
       </c>
-      <c r="CE11" t="n">
+      <c r="CF11" t="n">
         <v>0.7666666666666666</v>
       </c>
-      <c r="CF11" t="n">
+      <c r="CG11" t="n">
         <v>3.766666666666667</v>
       </c>
-      <c r="CG11" t="n">
+      <c r="CH11" t="n">
         <v>3.133333333333333</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3 квартал 2017</t>
-        </is>
+      <c r="A12" t="n">
+        <v>5.533333333333334</v>
       </c>
       <c r="B12" t="n">
-        <v>5.533333333333334</v>
+        <v>5.766666666666667</v>
       </c>
       <c r="C12" t="n">
-        <v>5.766666666666667</v>
+        <v>5.2</v>
       </c>
       <c r="D12" t="n">
-        <v>5.2</v>
+        <v>6.066666666666667</v>
       </c>
       <c r="E12" t="n">
-        <v>6.066666666666667</v>
+        <v>3.566666666666666</v>
       </c>
       <c r="F12" t="n">
-        <v>3.566666666666666</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>6.166666666666667</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>4.166666666666667</v>
+        <v>4.633333333333333</v>
       </c>
       <c r="I12" t="n">
-        <v>4.633333333333333</v>
+        <v>5.3</v>
       </c>
       <c r="J12" t="n">
-        <v>5.3</v>
+        <v>5.133333333333333</v>
       </c>
       <c r="K12" t="n">
-        <v>5.133333333333333</v>
+        <v>4.6</v>
       </c>
       <c r="L12" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="M12" t="n">
         <v>4.666666666666667</v>
       </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
         <v>4.833333333333333</v>
       </c>
@@ -3504,9 +3475,7 @@
       <c r="Q12" t="n">
         <v>5.7</v>
       </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
         <v>4.4</v>
       </c>
@@ -3621,136 +3590,133 @@
       <c r="BD12" t="n">
         <v>3.833333333333333</v>
       </c>
-      <c r="BE12" t="n">
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="n">
         <v>4.466666666666667</v>
       </c>
-      <c r="BF12" t="n">
+      <c r="BG12" t="n">
         <v>4.7</v>
       </c>
-      <c r="BG12" t="n">
+      <c r="BH12" t="n">
         <v>4.4</v>
       </c>
-      <c r="BH12" t="n">
+      <c r="BI12" t="n">
         <v>4.2</v>
       </c>
-      <c r="BI12" t="n">
+      <c r="BJ12" t="n">
         <v>0.6999999999999998</v>
       </c>
-      <c r="BJ12" t="n">
+      <c r="BK12" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="BK12" t="n">
+      <c r="BL12" t="n">
         <v>3.200000000000001</v>
       </c>
-      <c r="BL12" t="n">
+      <c r="BM12" t="n">
         <v>3.833333333333333</v>
       </c>
-      <c r="BM12" t="n">
+      <c r="BN12" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="BN12" t="n">
+      <c r="BO12" t="n">
         <v>3.6</v>
       </c>
-      <c r="BO12" t="n">
+      <c r="BP12" t="n">
         <v>4.2</v>
       </c>
-      <c r="BP12" t="n">
+      <c r="BQ12" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="BQ12" t="n">
+      <c r="BR12" t="n">
         <v>4.1</v>
       </c>
-      <c r="BR12" t="n">
+      <c r="BS12" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="BS12" t="n">
+      <c r="BT12" t="n">
         <v>4.5</v>
       </c>
-      <c r="BT12" t="n">
+      <c r="BU12" t="n">
         <v>3.533333333333333</v>
       </c>
-      <c r="BU12" t="n">
+      <c r="BV12" t="n">
         <v>2.533333333333333</v>
       </c>
-      <c r="BV12" t="n">
+      <c r="BW12" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="BW12" t="n">
+      <c r="BX12" t="n">
         <v>3.6</v>
       </c>
-      <c r="BX12" t="n">
+      <c r="BY12" t="n">
         <v>4.333333333333333</v>
       </c>
-      <c r="BY12" t="n">
+      <c r="BZ12" t="n">
         <v>4.466666666666667</v>
       </c>
-      <c r="BZ12" t="n">
+      <c r="CA12" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="CA12" t="n">
+      <c r="CB12" t="n">
         <v>3.9</v>
       </c>
-      <c r="CB12" t="n">
+      <c r="CC12" t="n">
         <v>3.433333333333334</v>
       </c>
-      <c r="CC12" t="n">
+      <c r="CD12" t="n">
         <v>2.799999999999999</v>
       </c>
-      <c r="CD12" t="n">
+      <c r="CE12" t="n">
         <v>1.5</v>
       </c>
-      <c r="CE12" t="n">
+      <c r="CF12" t="n">
         <v>0.8000000000000002</v>
       </c>
-      <c r="CF12" t="n">
+      <c r="CG12" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="CG12" t="n">
+      <c r="CH12" t="n">
         <v>3.1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4 квартал 2017</t>
-        </is>
+      <c r="A13" t="n">
+        <v>5.366666666666667</v>
       </c>
       <c r="B13" t="n">
-        <v>5.366666666666667</v>
+        <v>5.633333333333333</v>
       </c>
       <c r="C13" t="n">
-        <v>5.633333333333333</v>
+        <v>5.1</v>
       </c>
       <c r="D13" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="E13" t="n">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="F13" t="n">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>4.633333333333333</v>
       </c>
       <c r="I13" t="n">
+        <v>5.266666666666667</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L13" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="J13" t="n">
-        <v>5.266666666666667</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4.633333333333333</v>
-      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
         <v>4.9</v>
       </c>
@@ -3763,9 +3729,7 @@
       <c r="Q13" t="n">
         <v>5.633333333333333</v>
       </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
         <v>4.4</v>
       </c>
@@ -3880,136 +3844,133 @@
       <c r="BD13" t="n">
         <v>3.9</v>
       </c>
-      <c r="BE13" t="n">
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="n">
         <v>4.5</v>
       </c>
-      <c r="BF13" t="n">
+      <c r="BG13" t="n">
         <v>4.766666666666667</v>
       </c>
-      <c r="BG13" t="n">
+      <c r="BH13" t="n">
         <v>4.4</v>
       </c>
-      <c r="BH13" t="n">
+      <c r="BI13" t="n">
         <v>4.3</v>
       </c>
-      <c r="BI13" t="n">
+      <c r="BJ13" t="n">
         <v>0.8000000000000002</v>
       </c>
-      <c r="BJ13" t="n">
+      <c r="BK13" t="n">
         <v>3.133333333333333</v>
       </c>
-      <c r="BK13" t="n">
+      <c r="BL13" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="BL13" t="n">
+      <c r="BM13" t="n">
         <v>3.9</v>
       </c>
-      <c r="BM13" t="n">
+      <c r="BN13" t="n">
         <v>4.433333333333334</v>
       </c>
-      <c r="BN13" t="n">
+      <c r="BO13" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="BO13" t="n">
+      <c r="BP13" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="BP13" t="n">
+      <c r="BQ13" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="BQ13" t="n">
+      <c r="BR13" t="n">
         <v>4.1</v>
       </c>
-      <c r="BR13" t="n">
+      <c r="BS13" t="n">
         <v>4</v>
       </c>
-      <c r="BS13" t="n">
+      <c r="BT13" t="n">
         <v>4.5</v>
       </c>
-      <c r="BT13" t="n">
+      <c r="BU13" t="n">
         <v>3.6</v>
       </c>
-      <c r="BU13" t="n">
+      <c r="BV13" t="n">
         <v>2.6</v>
       </c>
-      <c r="BV13" t="n">
+      <c r="BW13" t="n">
         <v>4.7</v>
       </c>
-      <c r="BW13" t="n">
+      <c r="BX13" t="n">
         <v>3.700000000000001</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>4.5</v>
       </c>
       <c r="BY13" t="n">
         <v>4.5</v>
       </c>
       <c r="BZ13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="CA13" t="n">
         <v>4.4</v>
       </c>
-      <c r="CA13" t="n">
+      <c r="CB13" t="n">
         <v>4.2</v>
       </c>
-      <c r="CB13" t="n">
+      <c r="CC13" t="n">
         <v>3.566666666666666</v>
       </c>
-      <c r="CC13" t="n">
+      <c r="CD13" t="n">
         <v>2.799999999999999</v>
       </c>
-      <c r="CD13" t="n">
+      <c r="CE13" t="n">
         <v>1.5</v>
       </c>
-      <c r="CE13" t="n">
+      <c r="CF13" t="n">
         <v>0.7666666666666666</v>
       </c>
-      <c r="CF13" t="n">
+      <c r="CG13" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="CG13" t="n">
+      <c r="CH13" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1 квартал 2018</t>
-        </is>
+      <c r="A14" t="n">
+        <v>5.5</v>
       </c>
       <c r="B14" t="n">
         <v>5.5</v>
       </c>
       <c r="C14" t="n">
-        <v>5.5</v>
+        <v>5.050000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>5.050000000000001</v>
+        <v>5.25</v>
       </c>
       <c r="E14" t="n">
-        <v>5.25</v>
+        <v>3.45</v>
       </c>
       <c r="F14" t="n">
-        <v>3.45</v>
+        <v>5.75</v>
       </c>
       <c r="G14" t="n">
-        <v>5.75</v>
+        <v>4.3</v>
       </c>
       <c r="H14" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="I14" t="n">
-        <v>4.7</v>
+        <v>5.15</v>
       </c>
       <c r="J14" t="n">
-        <v>5.15</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>4.550000000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>4.550000000000001</v>
-      </c>
-      <c r="M14" t="n">
         <v>4.5</v>
       </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
         <v>4.85</v>
       </c>
@@ -4022,9 +3983,7 @@
       <c r="Q14" t="n">
         <v>6.050000000000001</v>
       </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
         <v>4.25</v>
       </c>
@@ -4139,136 +4098,133 @@
       <c r="BD14" t="n">
         <v>3.75</v>
       </c>
-      <c r="BE14" t="n">
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="n">
         <v>4.5</v>
       </c>
-      <c r="BF14" t="n">
+      <c r="BG14" t="n">
         <v>4.8</v>
       </c>
-      <c r="BG14" t="n">
+      <c r="BH14" t="n">
         <v>4.300000000000001</v>
       </c>
-      <c r="BH14" t="n">
+      <c r="BI14" t="n">
         <v>4.1</v>
       </c>
-      <c r="BI14" t="n">
+      <c r="BJ14" t="n">
         <v>0.8</v>
-      </c>
-      <c r="BJ14" t="n">
-        <v>3.15</v>
       </c>
       <c r="BK14" t="n">
         <v>3.15</v>
       </c>
       <c r="BL14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BM14" t="n">
         <v>3.7</v>
       </c>
-      <c r="BM14" t="n">
+      <c r="BN14" t="n">
         <v>4.2</v>
       </c>
-      <c r="BN14" t="n">
+      <c r="BO14" t="n">
         <v>3.7</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>4.1</v>
       </c>
       <c r="BP14" t="n">
         <v>4.1</v>
       </c>
       <c r="BQ14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BR14" t="n">
         <v>4</v>
       </c>
-      <c r="BR14" t="n">
+      <c r="BS14" t="n">
         <v>3.85</v>
       </c>
-      <c r="BS14" t="n">
+      <c r="BT14" t="n">
         <v>4.3</v>
       </c>
-      <c r="BT14" t="n">
+      <c r="BU14" t="n">
         <v>3.7</v>
       </c>
-      <c r="BU14" t="n">
+      <c r="BV14" t="n">
         <v>2.55</v>
       </c>
-      <c r="BV14" t="n">
+      <c r="BW14" t="n">
         <v>4.8</v>
       </c>
-      <c r="BW14" t="n">
+      <c r="BX14" t="n">
         <v>3.7</v>
       </c>
-      <c r="BX14" t="n">
+      <c r="BY14" t="n">
         <v>4.45</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>4.2</v>
       </c>
       <c r="BZ14" t="n">
         <v>4.2</v>
       </c>
       <c r="CA14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="CB14" t="n">
         <v>4.1</v>
       </c>
-      <c r="CB14" t="n">
+      <c r="CC14" t="n">
         <v>3.25</v>
       </c>
-      <c r="CC14" t="n">
+      <c r="CD14" t="n">
         <v>2.7</v>
       </c>
-      <c r="CD14" t="n">
+      <c r="CE14" t="n">
         <v>1.45</v>
       </c>
-      <c r="CE14" t="n">
+      <c r="CF14" t="n">
         <v>0.75</v>
       </c>
-      <c r="CF14" t="n">
+      <c r="CG14" t="n">
         <v>3.8</v>
       </c>
-      <c r="CG14" t="n">
+      <c r="CH14" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2 квартал 2018</t>
-        </is>
+      <c r="A15" t="n">
+        <v>5.833333333333333</v>
       </c>
       <c r="B15" t="n">
-        <v>5.833333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="C15" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="D15" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="E15" t="n">
-        <v>5.3</v>
+        <v>3.533333333333333</v>
       </c>
       <c r="F15" t="n">
-        <v>3.533333333333333</v>
+        <v>5.8</v>
       </c>
       <c r="G15" t="n">
-        <v>5.8</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>4.333333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="I15" t="n">
-        <v>4.833333333333333</v>
+        <v>5.266666666666667</v>
       </c>
       <c r="J15" t="n">
-        <v>5.266666666666667</v>
+        <v>4.866666666666666</v>
       </c>
       <c r="K15" t="n">
-        <v>4.866666666666666</v>
+        <v>4.433333333333334</v>
       </c>
       <c r="L15" t="n">
-        <v>4.433333333333334</v>
-      </c>
-      <c r="M15" t="n">
         <v>4.566666666666666</v>
       </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
         <v>4.7</v>
       </c>
@@ -4281,9 +4237,7 @@
       <c r="Q15" t="n">
         <v>5.966666666666666</v>
       </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
         <v>4.333333333333333</v>
       </c>
@@ -4398,136 +4352,133 @@
       <c r="BD15" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="BE15" t="n">
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="n">
         <v>4.4</v>
       </c>
-      <c r="BF15" t="n">
+      <c r="BG15" t="n">
         <v>4.666666666666667</v>
       </c>
-      <c r="BG15" t="n">
+      <c r="BH15" t="n">
         <v>4.2</v>
       </c>
-      <c r="BH15" t="n">
+      <c r="BI15" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="BI15" t="n">
+      <c r="BJ15" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="BJ15" t="n">
+      <c r="BK15" t="n">
         <v>3.033333333333333</v>
       </c>
-      <c r="BK15" t="n">
+      <c r="BL15" t="n">
         <v>3.200000000000001</v>
       </c>
-      <c r="BL15" t="n">
+      <c r="BM15" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="BM15" t="n">
+      <c r="BN15" t="n">
         <v>3.833333333333333</v>
       </c>
-      <c r="BN15" t="n">
+      <c r="BO15" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="BO15" t="n">
+      <c r="BP15" t="n">
         <v>4.133333333333334</v>
       </c>
-      <c r="BP15" t="n">
+      <c r="BQ15" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="BQ15" t="n">
+      <c r="BR15" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="BR15" t="n">
+      <c r="BS15" t="n">
         <v>3.9</v>
       </c>
-      <c r="BS15" t="n">
+      <c r="BT15" t="n">
         <v>4.2</v>
       </c>
-      <c r="BT15" t="n">
+      <c r="BU15" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="BU15" t="n">
+      <c r="BV15" t="n">
         <v>2.533333333333333</v>
       </c>
-      <c r="BV15" t="n">
+      <c r="BW15" t="n">
         <v>4.733333333333333</v>
       </c>
-      <c r="BW15" t="n">
+      <c r="BX15" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="BX15" t="n">
+      <c r="BY15" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="BY15" t="n">
+      <c r="BZ15" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="BZ15" t="n">
+      <c r="CA15" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="CA15" t="n">
+      <c r="CB15" t="n">
         <v>3.9</v>
       </c>
-      <c r="CB15" t="n">
+      <c r="CC15" t="n">
         <v>3.3</v>
       </c>
-      <c r="CC15" t="n">
+      <c r="CD15" t="n">
         <v>2.5</v>
       </c>
-      <c r="CD15" t="n">
+      <c r="CE15" t="n">
         <v>1.5</v>
       </c>
-      <c r="CE15" t="n">
+      <c r="CF15" t="n">
         <v>0.6333333333333333</v>
       </c>
-      <c r="CF15" t="n">
+      <c r="CG15" t="n">
         <v>3.9</v>
       </c>
-      <c r="CG15" t="n">
+      <c r="CH15" t="n">
         <v>2.933333333333334</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3 квартал 2018</t>
-        </is>
+      <c r="A16" t="n">
+        <v>5.600000000000001</v>
       </c>
       <c r="B16" t="n">
         <v>5.600000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>5.600000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="D16" t="n">
-        <v>5.1</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>4.899999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="F16" t="n">
-        <v>3.6</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>5.399999999999999</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>4.266666666666667</v>
+        <v>4.9</v>
       </c>
       <c r="I16" t="n">
-        <v>4.9</v>
+        <v>5.199999999999999</v>
       </c>
       <c r="J16" t="n">
-        <v>5.199999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="K16" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M16" t="n">
         <v>4.6</v>
       </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
         <v>4.833333333333333</v>
       </c>
@@ -4540,9 +4491,7 @@
       <c r="Q16" t="n">
         <v>5.8</v>
       </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
         <v>4.4</v>
       </c>
@@ -4657,136 +4606,133 @@
       <c r="BD16" t="n">
         <v>3.766666666666667</v>
       </c>
-      <c r="BE16" t="n">
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="n">
         <v>4.533333333333333</v>
       </c>
-      <c r="BF16" t="n">
+      <c r="BG16" t="n">
         <v>4.933333333333334</v>
       </c>
-      <c r="BG16" t="n">
+      <c r="BH16" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="BH16" t="n">
+      <c r="BI16" t="n">
         <v>4</v>
       </c>
-      <c r="BI16" t="n">
+      <c r="BJ16" t="n">
         <v>0.8666666666666667</v>
       </c>
-      <c r="BJ16" t="n">
+      <c r="BK16" t="n">
         <v>3.066666666666666</v>
       </c>
-      <c r="BK16" t="n">
+      <c r="BL16" t="n">
         <v>3.200000000000001</v>
       </c>
-      <c r="BL16" t="n">
+      <c r="BM16" t="n">
         <v>3.700000000000001</v>
       </c>
-      <c r="BM16" t="n">
+      <c r="BN16" t="n">
         <v>4.100000000000001</v>
       </c>
-      <c r="BN16" t="n">
+      <c r="BO16" t="n">
         <v>3.700000000000001</v>
       </c>
-      <c r="BO16" t="n">
+      <c r="BP16" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="BP16" t="n">
+      <c r="BQ16" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="BQ16" t="n">
+      <c r="BR16" t="n">
         <v>3.9</v>
       </c>
-      <c r="BR16" t="n">
+      <c r="BS16" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="BS16" t="n">
+      <c r="BT16" t="n">
         <v>4.366666666666666</v>
       </c>
-      <c r="BT16" t="n">
+      <c r="BU16" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="BU16" t="n">
+      <c r="BV16" t="n">
         <v>2.566666666666666</v>
       </c>
-      <c r="BV16" t="n">
+      <c r="BW16" t="n">
         <v>4.633333333333333</v>
       </c>
-      <c r="BW16" t="n">
+      <c r="BX16" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="BX16" t="n">
+      <c r="BY16" t="n">
         <v>4.4</v>
       </c>
-      <c r="BY16" t="n">
+      <c r="BZ16" t="n">
         <v>4.266666666666667</v>
       </c>
-      <c r="BZ16" t="n">
+      <c r="CA16" t="n">
         <v>4.233333333333333</v>
       </c>
-      <c r="CA16" t="n">
+      <c r="CB16" t="n">
         <v>3.833333333333333</v>
       </c>
-      <c r="CB16" t="n">
+      <c r="CC16" t="n">
         <v>3.566666666666666</v>
       </c>
-      <c r="CC16" t="n">
+      <c r="CD16" t="n">
         <v>2.566666666666666</v>
       </c>
-      <c r="CD16" t="n">
+      <c r="CE16" t="n">
         <v>1.5</v>
       </c>
-      <c r="CE16" t="n">
+      <c r="CF16" t="n">
         <v>0.6999999999999998</v>
       </c>
-      <c r="CF16" t="n">
+      <c r="CG16" t="n">
         <v>4</v>
       </c>
-      <c r="CG16" t="n">
+      <c r="CH16" t="n">
         <v>3.266666666666667</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4 квартал 2018</t>
-        </is>
+      <c r="A17" t="n">
+        <v>5.4</v>
       </c>
       <c r="B17" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="C17" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="D17" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="E17" t="n">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="F17" t="n">
-        <v>3.65</v>
+        <v>5.050000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>5.050000000000001</v>
+        <v>3.95</v>
       </c>
       <c r="H17" t="n">
-        <v>3.95</v>
+        <v>4.85</v>
       </c>
       <c r="I17" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="K17" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="L17" t="n">
         <v>4.6</v>
       </c>
-      <c r="L17" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4.6</v>
-      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
         <v>4.9</v>
       </c>
@@ -4799,9 +4745,7 @@
       <c r="Q17" t="n">
         <v>5.7</v>
       </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
         <v>4.25</v>
       </c>
@@ -4916,136 +4860,133 @@
       <c r="BD17" t="n">
         <v>3.9</v>
       </c>
-      <c r="BE17" t="n">
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="n">
         <v>4.449999999999999</v>
       </c>
-      <c r="BF17" t="n">
+      <c r="BG17" t="n">
         <v>4.75</v>
       </c>
-      <c r="BG17" t="n">
+      <c r="BH17" t="n">
         <v>4.25</v>
       </c>
-      <c r="BH17" t="n">
+      <c r="BI17" t="n">
         <v>4.15</v>
       </c>
-      <c r="BI17" t="n">
+      <c r="BJ17" t="n">
         <v>0.8500000000000001</v>
       </c>
-      <c r="BJ17" t="n">
+      <c r="BK17" t="n">
         <v>3.2</v>
       </c>
-      <c r="BK17" t="n">
+      <c r="BL17" t="n">
         <v>3.15</v>
       </c>
-      <c r="BL17" t="n">
+      <c r="BM17" t="n">
         <v>3.8</v>
       </c>
-      <c r="BM17" t="n">
+      <c r="BN17" t="n">
         <v>4.2</v>
       </c>
-      <c r="BN17" t="n">
+      <c r="BO17" t="n">
         <v>3.8</v>
       </c>
-      <c r="BO17" t="n">
+      <c r="BP17" t="n">
         <v>4.1</v>
       </c>
-      <c r="BP17" t="n">
+      <c r="BQ17" t="n">
         <v>3.85</v>
       </c>
-      <c r="BQ17" t="n">
+      <c r="BR17" t="n">
         <v>4</v>
       </c>
-      <c r="BR17" t="n">
+      <c r="BS17" t="n">
         <v>3.9</v>
       </c>
-      <c r="BS17" t="n">
+      <c r="BT17" t="n">
         <v>4.4</v>
       </c>
-      <c r="BT17" t="n">
+      <c r="BU17" t="n">
         <v>3.55</v>
       </c>
-      <c r="BU17" t="n">
+      <c r="BV17" t="n">
         <v>2.6</v>
       </c>
-      <c r="BV17" t="n">
+      <c r="BW17" t="n">
         <v>4.7</v>
       </c>
-      <c r="BW17" t="n">
+      <c r="BX17" t="n">
         <v>3.6</v>
       </c>
-      <c r="BX17" t="n">
+      <c r="BY17" t="n">
         <v>4.5</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>4.35</v>
       </c>
       <c r="BZ17" t="n">
         <v>4.35</v>
       </c>
       <c r="CA17" t="n">
-        <v>3.75</v>
+        <v>4.35</v>
       </c>
       <c r="CB17" t="n">
         <v>3.75</v>
       </c>
       <c r="CC17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="CD17" t="n">
         <v>2.6</v>
       </c>
-      <c r="CD17" t="n">
+      <c r="CE17" t="n">
         <v>1.5</v>
       </c>
-      <c r="CE17" t="n">
+      <c r="CF17" t="n">
         <v>0.7</v>
       </c>
-      <c r="CF17" t="n">
+      <c r="CG17" t="n">
         <v>4</v>
       </c>
-      <c r="CG17" t="n">
+      <c r="CH17" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>1 квартал 2019</t>
-        </is>
+      <c r="A18" t="n">
+        <v>5.6</v>
       </c>
       <c r="B18" t="n">
-        <v>5.6</v>
+        <v>4.699999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>4.699999999999999</v>
+        <v>3.45</v>
       </c>
       <c r="D18" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="E18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L18" t="n">
         <v>4.8</v>
       </c>
-      <c r="F18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4.8</v>
-      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
         <v>3.1</v>
       </c>
@@ -5058,9 +4999,7 @@
       <c r="Q18" t="n">
         <v>3.65</v>
       </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
         <v>2.6</v>
       </c>
@@ -5175,136 +5114,123 @@
       <c r="BD18" t="n">
         <v>2.6</v>
       </c>
-      <c r="BE18" t="n">
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="n">
         <v>3.05</v>
       </c>
-      <c r="BF18" t="n">
+      <c r="BG18" t="n">
         <v>5</v>
       </c>
-      <c r="BG18" t="n">
+      <c r="BH18" t="n">
         <v>2.8</v>
       </c>
-      <c r="BH18" t="n">
+      <c r="BI18" t="n">
         <v>2.75</v>
       </c>
-      <c r="BI18" t="n">
+      <c r="BJ18" t="n">
         <v>0.8</v>
       </c>
-      <c r="BJ18" t="n">
+      <c r="BK18" t="n">
         <v>1.85</v>
       </c>
-      <c r="BK18" t="n">
+      <c r="BL18" t="n">
         <v>2.05</v>
       </c>
-      <c r="BL18" t="n">
+      <c r="BM18" t="n">
         <v>2.25</v>
       </c>
-      <c r="BM18" t="n">
+      <c r="BN18" t="n">
         <v>2.8</v>
       </c>
-      <c r="BN18" t="n">
+      <c r="BO18" t="n">
         <v>2.35</v>
       </c>
-      <c r="BO18" t="n">
+      <c r="BP18" t="n">
         <v>2.5</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>2.4</v>
       </c>
       <c r="BQ18" t="n">
         <v>2.4</v>
       </c>
       <c r="BR18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BS18" t="n">
         <v>2.3</v>
       </c>
-      <c r="BS18" t="n">
+      <c r="BT18" t="n">
         <v>2.7</v>
       </c>
-      <c r="BT18" t="n">
+      <c r="BU18" t="n">
         <v>2.45</v>
       </c>
-      <c r="BU18" t="n">
+      <c r="BV18" t="n">
         <v>1.6</v>
       </c>
-      <c r="BV18" t="n">
+      <c r="BW18" t="n">
         <v>3.2</v>
       </c>
-      <c r="BW18" t="n">
+      <c r="BX18" t="n">
         <v>2.2</v>
       </c>
-      <c r="BX18" t="n">
+      <c r="BY18" t="n">
         <v>3.05</v>
       </c>
-      <c r="BY18" t="n">
+      <c r="BZ18" t="n">
         <v>2.6</v>
       </c>
-      <c r="BZ18" t="n">
+      <c r="CA18" t="n">
         <v>2.55</v>
       </c>
-      <c r="CA18" t="n">
+      <c r="CB18" t="n">
         <v>2.3</v>
       </c>
-      <c r="CB18" t="n">
+      <c r="CC18" t="n">
         <v>2.1</v>
       </c>
-      <c r="CC18" t="n">
+      <c r="CD18" t="n">
         <v>1.55</v>
       </c>
-      <c r="CD18" t="n">
+      <c r="CE18" t="n">
         <v>0.8999999999999999</v>
       </c>
-      <c r="CE18" t="n">
+      <c r="CF18" t="n">
         <v>0.4</v>
       </c>
-      <c r="CF18" t="n">
+      <c r="CG18" t="n">
         <v>2.6</v>
       </c>
-      <c r="CG18" t="n">
+      <c r="CH18" t="n">
         <v>2.2</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2 квартал 2019</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>4.733333333333333</v>
       </c>
       <c r="C19" t="n">
-        <v>4.733333333333333</v>
-      </c>
-      <c r="D19" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="G19" t="n">
-        <v>3.366666666666667</v>
-      </c>
-      <c r="H19" t="n">
         <v>2.633333333333333</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="J19" t="n">
-        <v>3.8</v>
+        <v>2.866666666666667</v>
       </c>
       <c r="K19" t="n">
-        <v>2.866666666666667</v>
-      </c>
-      <c r="L19" t="n">
         <v>3.299999999999999</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
         <v>2.933333333333334</v>
       </c>
@@ -5317,9 +5243,7 @@
       <c r="Q19" t="n">
         <v>3.5</v>
       </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
         <v>2.6</v>
       </c>
@@ -5338,9 +5262,7 @@
       <c r="X19" t="n">
         <v>3.433333333333334</v>
       </c>
-      <c r="Y19" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="n">
         <v>2.333333333333333</v>
       </c>
@@ -5434,136 +5356,121 @@
       <c r="BD19" t="n">
         <v>2.366666666666667</v>
       </c>
-      <c r="BE19" t="n">
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="n">
         <v>2.433333333333333</v>
       </c>
-      <c r="BF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG19" t="n">
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="n">
         <v>2.666666666666667</v>
       </c>
-      <c r="BH19" t="n">
+      <c r="BI19" t="n">
         <v>2.633333333333333</v>
       </c>
-      <c r="BI19" t="n">
+      <c r="BJ19" t="n">
         <v>0.7666666666666666</v>
       </c>
-      <c r="BJ19" t="n">
+      <c r="BK19" t="n">
         <v>1.933333333333333</v>
       </c>
-      <c r="BK19" t="n">
+      <c r="BL19" t="n">
         <v>1.9</v>
       </c>
-      <c r="BL19" t="n">
+      <c r="BM19" t="n">
         <v>2.2</v>
       </c>
-      <c r="BM19" t="n">
+      <c r="BN19" t="n">
         <v>2.6</v>
       </c>
-      <c r="BN19" t="n">
+      <c r="BO19" t="n">
         <v>2.133333333333333</v>
       </c>
-      <c r="BO19" t="n">
+      <c r="BP19" t="n">
         <v>2.7</v>
       </c>
-      <c r="BP19" t="n">
+      <c r="BQ19" t="n">
         <v>2.833333333333333</v>
       </c>
-      <c r="BQ19" t="n">
+      <c r="BR19" t="n">
         <v>2.266666666666667</v>
       </c>
-      <c r="BR19" t="n">
+      <c r="BS19" t="n">
         <v>2.366666666666667</v>
       </c>
-      <c r="BS19" t="n">
+      <c r="BT19" t="n">
         <v>2.933333333333334</v>
       </c>
-      <c r="BT19" t="n">
+      <c r="BU19" t="n">
         <v>2.333333333333333</v>
       </c>
-      <c r="BU19" t="n">
+      <c r="BV19" t="n">
         <v>1.566666666666667</v>
       </c>
-      <c r="BV19" t="n">
+      <c r="BW19" t="n">
         <v>2.9</v>
       </c>
-      <c r="BW19" t="n">
+      <c r="BX19" t="n">
         <v>2.166666666666667</v>
       </c>
-      <c r="BX19" t="n">
+      <c r="BY19" t="n">
         <v>2.666666666666667</v>
       </c>
-      <c r="BY19" t="n">
+      <c r="BZ19" t="n">
         <v>2.566666666666667</v>
       </c>
-      <c r="BZ19" t="n">
+      <c r="CA19" t="n">
         <v>2.4</v>
       </c>
-      <c r="CA19" t="n">
+      <c r="CB19" t="n">
         <v>2.3</v>
       </c>
-      <c r="CB19" t="n">
+      <c r="CC19" t="n">
         <v>1.933333333333333</v>
       </c>
-      <c r="CC19" t="n">
+      <c r="CD19" t="n">
         <v>1.533333333333333</v>
       </c>
-      <c r="CD19" t="n">
+      <c r="CE19" t="n">
         <v>0.9</v>
       </c>
-      <c r="CE19" t="n">
+      <c r="CF19" t="n">
         <v>0.5333333333333333</v>
       </c>
-      <c r="CF19" t="n">
+      <c r="CG19" t="n">
         <v>2.133333333333333</v>
       </c>
-      <c r="CG19" t="n">
+      <c r="CH19" t="n">
         <v>1.866666666666667</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3 квартал 2019</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" t="n">
         <v>4</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.799999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>3.799999999999999</v>
-      </c>
-      <c r="H20" t="n">
         <v>3.166666666666667</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="J20" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L20" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
         <v>3.6</v>
       </c>
@@ -5576,9 +5483,7 @@
       <c r="Q20" t="n">
         <v>4.2</v>
       </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
         <v>3.233333333333333</v>
       </c>
@@ -5597,9 +5502,7 @@
       <c r="X20" t="n">
         <v>3.4</v>
       </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="n">
         <v>3</v>
       </c>
@@ -5693,136 +5596,121 @@
       <c r="BD20" t="n">
         <v>2.866666666666667</v>
       </c>
-      <c r="BE20" t="n">
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="n">
         <v>3.5</v>
       </c>
-      <c r="BF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG20" t="n">
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="BH20" t="n">
+      <c r="BI20" t="n">
         <v>3.200000000000001</v>
       </c>
-      <c r="BI20" t="n">
+      <c r="BJ20" t="n">
         <v>0.8000000000000002</v>
       </c>
-      <c r="BJ20" t="n">
+      <c r="BK20" t="n">
         <v>2.266666666666667</v>
       </c>
-      <c r="BK20" t="n">
+      <c r="BL20" t="n">
         <v>2.4</v>
       </c>
-      <c r="BL20" t="n">
+      <c r="BM20" t="n">
         <v>2.733333333333334</v>
       </c>
-      <c r="BM20" t="n">
+      <c r="BN20" t="n">
         <v>3.233333333333333</v>
       </c>
-      <c r="BN20" t="n">
+      <c r="BO20" t="n">
         <v>2.566666666666666</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>3.200000000000001</v>
       </c>
       <c r="BP20" t="n">
         <v>3.200000000000001</v>
       </c>
       <c r="BQ20" t="n">
+        <v>3.200000000000001</v>
+      </c>
+      <c r="BR20" t="n">
         <v>2.766666666666667</v>
       </c>
-      <c r="BR20" t="n">
+      <c r="BS20" t="n">
         <v>2.866666666666667</v>
       </c>
-      <c r="BS20" t="n">
+      <c r="BT20" t="n">
         <v>3.5</v>
       </c>
-      <c r="BT20" t="n">
+      <c r="BU20" t="n">
         <v>2.833333333333333</v>
       </c>
-      <c r="BU20" t="n">
+      <c r="BV20" t="n">
         <v>1.933333333333333</v>
       </c>
-      <c r="BV20" t="n">
+      <c r="BW20" t="n">
         <v>3.366666666666667</v>
       </c>
-      <c r="BW20" t="n">
+      <c r="BX20" t="n">
         <v>2.700000000000001</v>
       </c>
-      <c r="BX20" t="n">
+      <c r="BY20" t="n">
         <v>3.233333333333333</v>
       </c>
-      <c r="BY20" t="n">
+      <c r="BZ20" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="BZ20" t="n">
+      <c r="CA20" t="n">
         <v>3</v>
       </c>
-      <c r="CA20" t="n">
+      <c r="CB20" t="n">
         <v>3.033333333333333</v>
       </c>
-      <c r="CB20" t="n">
+      <c r="CC20" t="n">
         <v>2.6</v>
       </c>
-      <c r="CC20" t="n">
+      <c r="CD20" t="n">
         <v>1.933333333333333</v>
       </c>
-      <c r="CD20" t="n">
+      <c r="CE20" t="n">
         <v>1.1</v>
       </c>
-      <c r="CE20" t="n">
+      <c r="CF20" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="CF20" t="n">
+      <c r="CG20" t="n">
         <v>2.866666666666667</v>
       </c>
-      <c r="CG20" t="n">
+      <c r="CH20" t="n">
         <v>2.3</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4 квартал 2019</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="C21" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="D21" t="n">
         <v>4.100000000000001</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3.966666666666666</v>
       </c>
       <c r="G21" t="n">
-        <v>3.966666666666666</v>
-      </c>
-      <c r="H21" t="n">
         <v>3.3</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>4.399999999999999</v>
+        <v>3.566666666666666</v>
       </c>
       <c r="K21" t="n">
-        <v>3.566666666666666</v>
-      </c>
-      <c r="L21" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
         <v>3.9</v>
       </c>
@@ -5835,9 +5723,7 @@
       <c r="Q21" t="n">
         <v>4.5</v>
       </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
         <v>3.433333333333334</v>
       </c>
@@ -5856,9 +5742,7 @@
       <c r="X21" t="n">
         <v>3.433333333333334</v>
       </c>
-      <c r="Y21" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="n">
         <v>3.266666666666667</v>
       </c>
@@ -5952,136 +5836,121 @@
       <c r="BD21" t="n">
         <v>3.1</v>
       </c>
-      <c r="BE21" t="n">
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="n">
         <v>3.766666666666667</v>
       </c>
-      <c r="BF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG21" t="n">
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="n">
         <v>3.5</v>
       </c>
-      <c r="BH21" t="n">
+      <c r="BI21" t="n">
         <v>3.466666666666667</v>
       </c>
-      <c r="BI21" t="n">
+      <c r="BJ21" t="n">
         <v>0.7666666666666666</v>
       </c>
-      <c r="BJ21" t="n">
+      <c r="BK21" t="n">
         <v>2.5</v>
       </c>
-      <c r="BK21" t="n">
+      <c r="BL21" t="n">
         <v>2.566666666666666</v>
       </c>
-      <c r="BL21" t="n">
+      <c r="BM21" t="n">
         <v>3</v>
       </c>
-      <c r="BM21" t="n">
+      <c r="BN21" t="n">
         <v>3.5</v>
       </c>
-      <c r="BN21" t="n">
+      <c r="BO21" t="n">
         <v>2.8</v>
       </c>
-      <c r="BO21" t="n">
+      <c r="BP21" t="n">
         <v>3.466666666666667</v>
       </c>
-      <c r="BP21" t="n">
+      <c r="BQ21" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="BQ21" t="n">
+      <c r="BR21" t="n">
         <v>2.966666666666667</v>
       </c>
-      <c r="BR21" t="n">
+      <c r="BS21" t="n">
         <v>3.066666666666666</v>
       </c>
-      <c r="BS21" t="n">
+      <c r="BT21" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="BT21" t="n">
+      <c r="BU21" t="n">
         <v>3</v>
       </c>
-      <c r="BU21" t="n">
+      <c r="BV21" t="n">
         <v>2.066666666666666</v>
       </c>
-      <c r="BV21" t="n">
+      <c r="BW21" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="BW21" t="n">
+      <c r="BX21" t="n">
         <v>2.966666666666667</v>
       </c>
-      <c r="BX21" t="n">
+      <c r="BY21" t="n">
         <v>3.466666666666667</v>
       </c>
-      <c r="BY21" t="n">
+      <c r="BZ21" t="n">
         <v>3.366666666666667</v>
       </c>
-      <c r="BZ21" t="n">
+      <c r="CA21" t="n">
         <v>3.233333333333334</v>
       </c>
-      <c r="CA21" t="n">
+      <c r="CB21" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="CB21" t="n">
+      <c r="CC21" t="n">
         <v>2.8</v>
       </c>
-      <c r="CC21" t="n">
+      <c r="CD21" t="n">
         <v>2.033333333333333</v>
       </c>
-      <c r="CD21" t="n">
+      <c r="CE21" t="n">
         <v>1.166666666666667</v>
       </c>
-      <c r="CE21" t="n">
+      <c r="CF21" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="CF21" t="n">
+      <c r="CG21" t="n">
         <v>3.1</v>
       </c>
-      <c r="CG21" t="n">
+      <c r="CH21" t="n">
         <v>2.466666666666667</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>1 квартал 2020</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="C22" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="D22" t="n">
         <v>4.6</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="G22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H22" t="n">
         <v>3.8</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
-      </c>
-      <c r="L22" t="n">
         <v>4.55</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
         <v>4.5</v>
       </c>
@@ -6094,9 +5963,7 @@
       <c r="Q22" t="n">
         <v>4.85</v>
       </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="n">
         <v>3.8</v>
       </c>
@@ -6115,9 +5982,7 @@
       <c r="X22" t="n">
         <v>3.25</v>
       </c>
-      <c r="Y22" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="n">
         <v>4</v>
       </c>
@@ -6211,136 +6076,121 @@
       <c r="BD22" t="n">
         <v>3.5</v>
       </c>
-      <c r="BE22" t="n">
+      <c r="BE22" t="inlineStr"/>
+      <c r="BF22" t="n">
         <v>4.3</v>
       </c>
-      <c r="BF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>3.9</v>
-      </c>
+      <c r="BG22" t="inlineStr"/>
       <c r="BH22" t="n">
         <v>3.9</v>
       </c>
       <c r="BI22" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BJ22" t="n">
         <v>0.8</v>
       </c>
-      <c r="BJ22" t="n">
+      <c r="BK22" t="n">
         <v>2.9</v>
       </c>
-      <c r="BK22" t="n">
+      <c r="BL22" t="n">
         <v>2.95</v>
       </c>
-      <c r="BL22" t="n">
+      <c r="BM22" t="n">
         <v>3.5</v>
       </c>
-      <c r="BM22" t="n">
+      <c r="BN22" t="n">
         <v>3.7</v>
       </c>
-      <c r="BN22" t="n">
+      <c r="BO22" t="n">
         <v>3.15</v>
       </c>
-      <c r="BO22" t="n">
+      <c r="BP22" t="n">
         <v>3.9</v>
       </c>
-      <c r="BP22" t="n">
+      <c r="BQ22" t="n">
         <v>3.7</v>
       </c>
-      <c r="BQ22" t="n">
+      <c r="BR22" t="n">
         <v>3.5</v>
       </c>
-      <c r="BR22" t="n">
+      <c r="BS22" t="n">
         <v>3.55</v>
       </c>
-      <c r="BS22" t="n">
+      <c r="BT22" t="n">
         <v>4.1</v>
       </c>
-      <c r="BT22" t="n">
+      <c r="BU22" t="n">
         <v>3.4</v>
       </c>
-      <c r="BU22" t="n">
+      <c r="BV22" t="n">
         <v>2.3</v>
       </c>
-      <c r="BV22" t="n">
+      <c r="BW22" t="n">
         <v>4.1</v>
       </c>
-      <c r="BW22" t="n">
+      <c r="BX22" t="n">
         <v>3.2</v>
       </c>
-      <c r="BX22" t="n">
+      <c r="BY22" t="n">
         <v>4.050000000000001</v>
       </c>
-      <c r="BY22" t="n">
+      <c r="BZ22" t="n">
         <v>3.8</v>
       </c>
-      <c r="BZ22" t="n">
+      <c r="CA22" t="n">
         <v>3.85</v>
       </c>
-      <c r="CA22" t="n">
+      <c r="CB22" t="n">
         <v>3.9</v>
       </c>
-      <c r="CB22" t="n">
+      <c r="CC22" t="n">
         <v>3.2</v>
       </c>
-      <c r="CC22" t="n">
+      <c r="CD22" t="n">
         <v>2.3</v>
       </c>
-      <c r="CD22" t="n">
+      <c r="CE22" t="n">
         <v>1.35</v>
       </c>
-      <c r="CE22" t="n">
+      <c r="CF22" t="n">
         <v>0.75</v>
       </c>
-      <c r="CF22" t="n">
+      <c r="CG22" t="n">
         <v>3.85</v>
       </c>
-      <c r="CG22" t="n">
+      <c r="CH22" t="n">
         <v>2.95</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2 квартал 2020</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>4.366666666666667</v>
       </c>
       <c r="C23" t="n">
-        <v>4.366666666666667</v>
-      </c>
-      <c r="D23" t="n">
         <v>3.966666666666666</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="G23" t="n">
-        <v>4.666666666666667</v>
-      </c>
-      <c r="H23" t="n">
         <v>3.1</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4.466666666666667</v>
       </c>
       <c r="J23" t="n">
-        <v>4.466666666666667</v>
+        <v>3.566666666666666</v>
       </c>
       <c r="K23" t="n">
-        <v>3.566666666666666</v>
-      </c>
-      <c r="L23" t="n">
         <v>3.733333333333333</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
         <v>4.166666666666667</v>
       </c>
@@ -6353,9 +6203,7 @@
       <c r="Q23" t="n">
         <v>4.466666666666668</v>
       </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
         <v>3.333333333333333</v>
       </c>
@@ -6374,9 +6222,7 @@
       <c r="X23" t="n">
         <v>2.566666666666667</v>
       </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
         <v>3.933333333333334</v>
       </c>
@@ -6470,136 +6316,121 @@
       <c r="BD23" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="BE23" t="n">
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="n">
         <v>3.6</v>
       </c>
-      <c r="BF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG23" t="n">
+      <c r="BG23" t="inlineStr"/>
+      <c r="BH23" t="n">
         <v>3.299999999999999</v>
       </c>
-      <c r="BH23" t="n">
+      <c r="BI23" t="n">
         <v>3.366666666666667</v>
       </c>
-      <c r="BI23" t="n">
+      <c r="BJ23" t="n">
         <v>0.6333333333333333</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>2.433333333333334</v>
       </c>
       <c r="BK23" t="n">
         <v>2.433333333333334</v>
       </c>
       <c r="BL23" t="n">
+        <v>2.433333333333334</v>
+      </c>
+      <c r="BM23" t="n">
         <v>3.233333333333334</v>
       </c>
-      <c r="BM23" t="n">
+      <c r="BN23" t="n">
         <v>3.133333333333333</v>
       </c>
-      <c r="BN23" t="n">
+      <c r="BO23" t="n">
         <v>2.700000000000001</v>
       </c>
-      <c r="BO23" t="n">
+      <c r="BP23" t="n">
         <v>3.166666666666667</v>
       </c>
-      <c r="BP23" t="n">
+      <c r="BQ23" t="n">
         <v>3</v>
       </c>
-      <c r="BQ23" t="n">
+      <c r="BR23" t="n">
         <v>3.2</v>
       </c>
-      <c r="BR23" t="n">
+      <c r="BS23" t="n">
         <v>3.1</v>
       </c>
-      <c r="BS23" t="n">
+      <c r="BT23" t="n">
         <v>3.566666666666666</v>
       </c>
-      <c r="BT23" t="n">
+      <c r="BU23" t="n">
         <v>2.966666666666666</v>
       </c>
-      <c r="BU23" t="n">
+      <c r="BV23" t="n">
         <v>2.033333333333334</v>
       </c>
-      <c r="BV23" t="n">
+      <c r="BW23" t="n">
         <v>3.6</v>
       </c>
-      <c r="BW23" t="n">
+      <c r="BX23" t="n">
         <v>2.7</v>
       </c>
-      <c r="BX23" t="n">
+      <c r="BY23" t="n">
         <v>3.566666666666666</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>3.433333333333334</v>
       </c>
       <c r="BZ23" t="n">
         <v>3.433333333333334</v>
       </c>
       <c r="CA23" t="n">
+        <v>3.433333333333334</v>
+      </c>
+      <c r="CB23" t="n">
         <v>4.033333333333333</v>
       </c>
-      <c r="CB23" t="n">
+      <c r="CC23" t="n">
         <v>2.700000000000001</v>
       </c>
-      <c r="CC23" t="n">
+      <c r="CD23" t="n">
         <v>1.966666666666667</v>
       </c>
-      <c r="CD23" t="n">
+      <c r="CE23" t="n">
         <v>1.166666666666667</v>
       </c>
-      <c r="CE23" t="n">
+      <c r="CF23" t="n">
         <v>0.6333333333333333</v>
       </c>
-      <c r="CF23" t="n">
+      <c r="CG23" t="n">
         <v>3.566666666666666</v>
       </c>
-      <c r="CG23" t="n">
+      <c r="CH23" t="n">
         <v>2.366666666666667</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>3 квартал 2020</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>4.133333333333333</v>
       </c>
       <c r="C24" t="n">
-        <v>4.133333333333333</v>
-      </c>
-      <c r="D24" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>4.033333333333333</v>
       </c>
       <c r="G24" t="n">
-        <v>4.033333333333333</v>
-      </c>
-      <c r="H24" t="n">
         <v>2.833333333333333</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="J24" t="n">
-        <v>4.166666666666667</v>
+        <v>3.566666666666666</v>
       </c>
       <c r="K24" t="n">
-        <v>3.566666666666666</v>
-      </c>
-      <c r="L24" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
         <v>4.066666666666666</v>
       </c>
@@ -6612,9 +6443,7 @@
       <c r="Q24" t="n">
         <v>4.100000000000001</v>
       </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
         <v>3.4</v>
       </c>
@@ -6633,9 +6462,7 @@
       <c r="X24" t="n">
         <v>2.5</v>
       </c>
-      <c r="Y24" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="n">
         <v>4.333333333333333</v>
       </c>
@@ -6729,136 +6556,121 @@
       <c r="BD24" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="BE24" t="n">
+      <c r="BE24" t="inlineStr"/>
+      <c r="BF24" t="n">
         <v>3.566666666666667</v>
       </c>
-      <c r="BF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG24" t="n">
+      <c r="BG24" t="inlineStr"/>
+      <c r="BH24" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="BH24" t="n">
+      <c r="BI24" t="n">
         <v>3.466666666666667</v>
       </c>
-      <c r="BI24" t="n">
+      <c r="BJ24" t="n">
         <v>0.6999999999999998</v>
-      </c>
-      <c r="BJ24" t="n">
-        <v>2.533333333333334</v>
       </c>
       <c r="BK24" t="n">
         <v>2.533333333333334</v>
       </c>
       <c r="BL24" t="n">
+        <v>2.533333333333334</v>
+      </c>
+      <c r="BM24" t="n">
         <v>3.266666666666667</v>
       </c>
-      <c r="BM24" t="n">
+      <c r="BN24" t="n">
         <v>3</v>
       </c>
-      <c r="BN24" t="n">
+      <c r="BO24" t="n">
         <v>2.8</v>
       </c>
-      <c r="BO24" t="n">
+      <c r="BP24" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="BP24" t="n">
+      <c r="BQ24" t="n">
         <v>2.933333333333334</v>
       </c>
-      <c r="BQ24" t="n">
+      <c r="BR24" t="n">
         <v>3.366666666666667</v>
       </c>
-      <c r="BR24" t="n">
+      <c r="BS24" t="n">
         <v>2.966666666666667</v>
       </c>
-      <c r="BS24" t="n">
+      <c r="BT24" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="BT24" t="n">
+      <c r="BU24" t="n">
         <v>3.1</v>
       </c>
-      <c r="BU24" t="n">
+      <c r="BV24" t="n">
         <v>1.9</v>
       </c>
-      <c r="BV24" t="n">
+      <c r="BW24" t="n">
         <v>3.8</v>
       </c>
-      <c r="BW24" t="n">
+      <c r="BX24" t="n">
         <v>2.9</v>
       </c>
-      <c r="BX24" t="n">
+      <c r="BY24" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="BY24" t="n">
+      <c r="BZ24" t="n">
         <v>3.833333333333333</v>
       </c>
-      <c r="BZ24" t="n">
+      <c r="CA24" t="n">
         <v>3.6</v>
       </c>
-      <c r="CA24" t="n">
+      <c r="CB24" t="n">
         <v>4.499999999999999</v>
       </c>
-      <c r="CB24" t="n">
+      <c r="CC24" t="n">
         <v>2.833333333333333</v>
       </c>
-      <c r="CC24" t="n">
+      <c r="CD24" t="n">
         <v>2.2</v>
       </c>
-      <c r="CD24" t="n">
+      <c r="CE24" t="n">
         <v>1.266666666666667</v>
       </c>
-      <c r="CE24" t="n">
+      <c r="CF24" t="n">
         <v>0.6999999999999998</v>
       </c>
-      <c r="CF24" t="n">
+      <c r="CG24" t="n">
         <v>3.5</v>
       </c>
-      <c r="CG24" t="n">
+      <c r="CH24" t="n">
         <v>2.266666666666667</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>4 квартал 2020</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr"/>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="C25" t="n">
-        <v>4.833333333333333</v>
-      </c>
-      <c r="D25" t="n">
         <v>4.166666666666667</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>4.633333333333334</v>
       </c>
       <c r="G25" t="n">
-        <v>4.633333333333334</v>
-      </c>
-      <c r="H25" t="n">
         <v>3.233333333333333</v>
       </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>4.366666666666666</v>
       </c>
       <c r="J25" t="n">
-        <v>4.366666666666666</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
-      </c>
-      <c r="L25" t="n">
         <v>3.966666666666667</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
         <v>4.4</v>
       </c>
@@ -6871,9 +6683,7 @@
       <c r="Q25" t="n">
         <v>4.6</v>
       </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
         <v>3.866666666666667</v>
       </c>
@@ -6892,9 +6702,7 @@
       <c r="X25" t="n">
         <v>2.766666666666667</v>
       </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
+      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="n">
         <v>4.7</v>
       </c>
@@ -6988,91 +6796,90 @@
       <c r="BD25" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="BE25" t="n">
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="n">
         <v>4.333333333333334</v>
       </c>
-      <c r="BF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG25" t="n">
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="n">
         <v>3.9</v>
       </c>
-      <c r="BH25" t="n">
+      <c r="BI25" t="n">
         <v>3.933333333333334</v>
       </c>
-      <c r="BI25" t="n">
+      <c r="BJ25" t="n">
         <v>0.9</v>
       </c>
-      <c r="BJ25" t="n">
+      <c r="BK25" t="n">
         <v>2.933333333333334</v>
       </c>
-      <c r="BK25" t="n">
+      <c r="BL25" t="n">
         <v>2.866666666666667</v>
       </c>
-      <c r="BL25" t="n">
+      <c r="BM25" t="n">
         <v>3.5</v>
       </c>
-      <c r="BM25" t="n">
+      <c r="BN25" t="n">
         <v>3.633333333333333</v>
       </c>
-      <c r="BN25" t="n">
+      <c r="BO25" t="n">
         <v>3.200000000000001</v>
       </c>
-      <c r="BO25" t="n">
+      <c r="BP25" t="n">
         <v>3.9</v>
       </c>
-      <c r="BP25" t="n">
+      <c r="BQ25" t="n">
         <v>3.333333333333333</v>
       </c>
-      <c r="BQ25" t="n">
+      <c r="BR25" t="n">
         <v>3.666666666666667</v>
       </c>
-      <c r="BR25" t="n">
+      <c r="BS25" t="n">
         <v>3.466666666666667</v>
       </c>
-      <c r="BS25" t="n">
+      <c r="BT25" t="n">
         <v>4.2</v>
       </c>
-      <c r="BT25" t="n">
+      <c r="BU25" t="n">
         <v>3.5</v>
       </c>
-      <c r="BU25" t="n">
+      <c r="BV25" t="n">
         <v>2.4</v>
       </c>
-      <c r="BV25" t="n">
+      <c r="BW25" t="n">
         <v>4.3</v>
       </c>
-      <c r="BW25" t="n">
+      <c r="BX25" t="n">
         <v>3.466666666666667</v>
-      </c>
-      <c r="BX25" t="n">
-        <v>4.266666666666667</v>
       </c>
       <c r="BY25" t="n">
         <v>4.266666666666667</v>
       </c>
       <c r="BZ25" t="n">
+        <v>4.266666666666667</v>
+      </c>
+      <c r="CA25" t="n">
         <v>4.066666666666666</v>
       </c>
-      <c r="CA25" t="n">
+      <c r="CB25" t="n">
         <v>4.766666666666667</v>
       </c>
-      <c r="CB25" t="n">
+      <c r="CC25" t="n">
         <v>3.233333333333333</v>
       </c>
-      <c r="CC25" t="n">
+      <c r="CD25" t="n">
         <v>2.533333333333333</v>
       </c>
-      <c r="CD25" t="n">
+      <c r="CE25" t="n">
         <v>1.566666666666667</v>
       </c>
-      <c r="CE25" t="n">
+      <c r="CF25" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="CF25" t="n">
+      <c r="CG25" t="n">
         <v>3.866666666666667</v>
       </c>
-      <c r="CG25" t="n">
+      <c r="CH25" t="n">
         <v>2.766666666666667</v>
       </c>
     </row>
